--- a/data/Lasso/Jul 21 LIWC Lasso Coefficients.xlsx
+++ b/data/Lasso/Jul 21 LIWC Lasso Coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigelee/Desktop/summer2022/stanford/research/ukraine-media-CSLI/data/Lasso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B78B37-A221-AD44-AFD3-F3DF7E74C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF52DB4A-54D2-AA48-A9AA-A6D35A4E4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" activeTab="2" xr2:uid="{8015F6F9-F99B-9043-B288-42FBD37B9A91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{8015F6F9-F99B-9043-B288-42FBD37B9A91}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha01" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Penn Treebank POS" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>LIWC Category</t>
   </si>
@@ -557,15 +557,22 @@
     <t>Investigated yet?</t>
   </si>
   <si>
-    <t>Referent</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>positive change</t>
+  </si>
+  <si>
+    <t>negative change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -672,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,6 +728,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1B77C0-D663-044E-8944-D5F280A4CCDF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1628,7 +1637,9 @@
       <c r="B2" s="11">
         <v>4.3869254298763802E-2</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1665,9 @@
       <c r="B4" s="11">
         <v>1.53293884335722E-2</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D4" s="19" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1693,9 @@
       <c r="B6" s="11">
         <v>4.6044891468406896E-3</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D6" s="19" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1722,9 @@
       <c r="B8" s="11">
         <v>4.4733751159901799E-4</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
@@ -1722,7 +1739,9 @@
       <c r="B9" s="11">
         <v>3.37612084266671E-4</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="D9" s="19" t="s">
         <v>46</v>
       </c>
@@ -2013,29 +2032,166 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D30A70-52A8-4B42-A31E-3F31DE4CBC66}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643BF00B-FBD1-964F-9615-AA119E2F6DB8}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>168</v>
-      </c>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2.99375793883861E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2.89018359128215E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="24">
+        <v>9.9408407441881706E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1.7435792227667899E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <v>8.9250601367027796E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="24">
+        <v>-1.8913441762422201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="24">
+        <v>-1.6867264888725701E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24">
+        <v>-1.20036993177888E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="24">
+        <v>-1.0262890543485E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="24">
+        <v>-7.2329566500279304E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="24">
+        <v>-5.9514039955875899E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="24">
+        <v>-6.1751780218980497E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24">
+        <v>-2.9522651720000499E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="1"/>
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2044,7 +2200,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
